--- a/焦煤/data_input/焦煤上游总库存.xlsx
+++ b/焦煤/data_input/焦煤上游总库存.xlsx
@@ -12109,7 +12109,7 @@
         <v>45947</v>
       </c>
       <c r="B956" t="n">
-        <v>875.184</v>
+        <v>890.884</v>
       </c>
       <c r="C956" t="n">
         <v>272.71</v>
@@ -12124,7 +12124,7 @@
         <v>45954</v>
       </c>
       <c r="B957" t="n">
-        <v>854.942</v>
+        <v>870.6420000000001</v>
       </c>
       <c r="C957" t="n">
         <v>275.65</v>
